--- a/CountryData/Tanzania/Tanzania_Workbook.xlsx
+++ b/CountryData/Tanzania/Tanzania_Workbook.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Tanzania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5D3DC418-BB66-43A5-A2F0-4A47F8BDFB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:40009_{5D3DC418-BB66-43A5-A2F0-4A47F8BDFB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D91848D9-E74D-4E8E-AF6B-D568D245714E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="7200" yWindow="3525" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tanzania_Popup" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Tanzania</t>
   </si>
@@ -140,164 +140,6 @@
   </si>
   <si>
     <t>Mining Policy, 2009</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">May 2021 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tanzania Starts Refining Gold to International Standards</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">November 2020 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">GGM Injects Over One Billion into Training of 500 Entrepreneurs </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>August 2020 –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Mining Firm and NEEC in New Deal to Empower More Tanzanian Miners</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> September 2019 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dissecting the Social License to Operate: Local Community Perceptions of Industrial Mining in Northwest Tanzania</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">March 2019 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tanzania Relaxes Protectionist Regulations in Mining Sector</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>November 2018 –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tanzania Partners with DRC to Process Cobalt </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>September 2018 –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Acacia to Relocate Core Functions to Tanzania in 2019</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>February 2018 –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tanzania Lays Down the Law on Local Participation in Mining Sector</t>
-    </r>
   </si>
   <si>
     <r>
@@ -374,125 +216,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Racheal Chagonja (2019) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Extractive Resources-Industrialisation Linkages: Opportunities, Challenges, and Lessons for Tanzania</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Foubert and Merket (2019) –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dissecting the Social License to Operate: Local Community Perceptions of Industrial Mining in Northwest Tanzania</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Andrews and Nwapi (2017) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A “New” Developmental State in Africa? Evaluating Recent State Interventions vis-à-vis Resource Extraction in Kenya, Tanzania, and Rwanda</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Shepherd and Honwana Welch (2017) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Developing Businesses of Scale in Sub-Saharan Africa: Insights from Nigeria, Tanzania, Uganda and Zambia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Kinyondo and Villanger (2017) –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local Content Requirements in the Petroleum Sector in Tanzania: A Thorny Road from Inception to Implementation?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Paywall)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Calignano and Vaaland (2017) –</t>
     </r>
     <r>
@@ -696,11 +419,47 @@
       <t>Progress Report: November 2020</t>
     </r>
   </si>
+  <si>
+    <t>May 2021 – Tanzania Starts Refining Gold to International Standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2020 – GGM Injects Over One Billion into Training of 500 Entrepreneurs </t>
+  </si>
+  <si>
+    <t>August 2020 – Mining Firm and NEEC in New Deal to Empower More Tanzanian Miners</t>
+  </si>
+  <si>
+    <t>March 2019 – Tanzania Relaxes Protectionist Regulations in Mining Sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2018 – Tanzania Partners with DRC to Process Cobalt </t>
+  </si>
+  <si>
+    <t>September 2018 – Acacia to Relocate Core Functions to Tanzania in 2019</t>
+  </si>
+  <si>
+    <t>February 2018 – Tanzania Lays Down the Law on Local Participation in Mining Sector</t>
+  </si>
+  <si>
+    <t>Racheal Chagonja (2019) – Extractive Resources-Industrialisation Linkages: Opportunities, Challenges, and Lessons for Tanzania</t>
+  </si>
+  <si>
+    <t>Foubert and Merket (2019) – Dissecting the Social License to Operate: Local Community Perceptions of Industrial Mining in Northwest Tanzania</t>
+  </si>
+  <si>
+    <t>Andrews and Nwapi (2017) – A “New” Developmental State in Africa? Evaluating Recent State Interventions vis-à-vis Resource Extraction in Kenya, Tanzania, and Rwanda</t>
+  </si>
+  <si>
+    <t>Shepherd and Honwana Welch (2017) – Developing Businesses of Scale in Sub-Saharan Africa: Insights from Nigeria, Tanzania, Uganda and Zambia</t>
+  </si>
+  <si>
+    <t>Kinyondo and Villanger (2017) – Local Content Requirements in the Petroleum Sector in Tanzania: A Thorny Road from Inception to Implementation? (Paywall)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1345,7 +1104,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1388,7 +1147,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1415,6 +1173,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1772,11 +1534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:H62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I63"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1789,7 +1551,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1801,7 +1563,7 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
@@ -1815,7 +1577,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2"/>
@@ -1829,7 +1591,7 @@
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2"/>
@@ -1843,7 +1605,7 @@
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>163</v>
       </c>
       <c r="C6" s="2"/>
@@ -1857,7 +1619,7 @@
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="5"/>
@@ -1871,7 +1633,7 @@
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1890,7 +1652,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="10"/>
@@ -1924,7 +1686,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="14"/>
@@ -1936,7 +1698,7 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="14"/>
@@ -1948,7 +1710,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="14"/>
@@ -1960,7 +1722,7 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="14"/>
@@ -1972,7 +1734,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="14"/>
@@ -1984,7 +1746,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="14"/>
@@ -1996,7 +1758,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="14"/>
@@ -2020,7 +1782,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="14"/>
@@ -2056,7 +1818,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="14"/>
@@ -2068,7 +1830,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="14"/>
@@ -2082,8 +1844,8 @@
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2094,92 +1856,92 @@
         <v>26</v>
       </c>
       <c r="B27" s="9"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>36</v>
+      <c r="A28" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="B28" s="14"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>37</v>
+      <c r="A29" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="B29" s="14"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>38</v>
+      <c r="A30" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="9"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="A31" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>42</v>
+      <c r="A34" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="B34" s="14"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2187,42 +1949,42 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="B38" s="9"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2232,104 +1994,104 @@
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="2"/>
+      <c r="A40" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="A41" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
+      <c r="A42" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="A43" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
+      <c r="A44" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="A45" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
+      <c r="A46" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="2"/>
@@ -2340,32 +2102,32 @@
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="A48" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
+      <c r="A49" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="2"/>
@@ -2376,10 +2138,8 @@
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="14"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2388,7 +2148,9 @@
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
+      <c r="A52" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="B52" s="9"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2397,11 +2159,11 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" s="9"/>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="7"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2411,7 +2173,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="2"/>
@@ -2423,7 +2185,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="2"/>
@@ -2434,9 +2196,7 @@
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
-        <v>58</v>
-      </c>
+      <c r="A56" s="19"/>
       <c r="B56" s="7"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2446,7 +2206,9 @@
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
+      <c r="A57" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="B57" s="7"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2456,8 +2218,8 @@
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
-        <v>31</v>
+      <c r="A58" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="2"/>
@@ -2468,8 +2230,8 @@
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>32</v>
+      <c r="A59" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="2"/>
@@ -2480,8 +2242,8 @@
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="27" t="s">
-        <v>33</v>
+      <c r="A60" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="2"/>
@@ -2492,8 +2254,8 @@
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="27" t="s">
-        <v>34</v>
+      <c r="A61" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="2"/>
@@ -2504,10 +2266,8 @@
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62" s="7"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2515,63 +2275,55 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=TZ"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=TZ"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=TZ"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/tanzania"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/226/export-basket"/>
-    <hyperlink ref="A13" r:id="rId7" display="https://www.ewura.go.tz/wp-content/uploads/2020/05/The-Petroleum-Natural-Gas-Midstream-and-Downstream-General-Regulations-2020-GN-270.pdf"/>
-    <hyperlink ref="A14" r:id="rId8" display="https://cdn.trombino.org/uploads/files/THE-MINING-REGULATIONS-OF-2018.pdf"/>
-    <hyperlink ref="A15" r:id="rId9" display="https://www.madini.go.tz/wp-content/uploads/2019/02/THE-MINING-LOCAL-CONTENTAMENDMENTS-REGULATIONS-2019_GN-NO-139-OF-2019.pdf"/>
-    <hyperlink ref="A16" r:id="rId10" display="https://www.velmalaw.co.tz/wp-content/uploads/2018/02/Mining-Local-Content-Regulations-2018.pdf"/>
-    <hyperlink ref="A18" r:id="rId11" display="https://www.ewura.go.tz/wp-content/uploads/2015/03/GN-Petroleum-Local-Content-Regulations-2017-GN-197.pdf"/>
-    <hyperlink ref="A19" r:id="rId12" display="https://www.madini.go.tz/wp-content/uploads/2017/12/TEITI-ACT-AND-MINING-ACT-AMENDMENT-BILLS-2015.pdf"/>
-    <hyperlink ref="A21" r:id="rId13" display="https://tanzania.eregulations.org/media/The non-citizens (employment Regulations) Act, 2015.pdf"/>
-    <hyperlink ref="A24" r:id="rId14" display="http://extwprlegs1.fao.org/docs/pdf/tan97360.pdf"/>
-    <hyperlink ref="A25" r:id="rId15" display="http://tanzania.eregulations.org/media/INVESTMENT ACT.pdf"/>
-    <hyperlink ref="A28" r:id="rId16" display="https://www.thecitizen.co.tz/tanzania/news/business/tanzania-starts-refining-gold-to-international-standards-3385190"/>
-    <hyperlink ref="A29" r:id="rId17" display="https://dailynews.co.tz/news/2020-11-195fb66b1b1f908"/>
-    <hyperlink ref="A30" r:id="rId18" display="https://www.ippmedia.com/en/news/mining-firm-and-neec-new-deal-empower-more-tanzanian-miners"/>
-    <hyperlink ref="A31" r:id="rId19" display="https://ipisresearch.be/wp-content/uploads/2019/08/1908-DGD-TZ-LSM_web3.pdf"/>
-    <hyperlink ref="A33" r:id="rId20" display="https://www.theeastafrican.co.ke/business/Tanzania-partners-with-DRCto-process-cobalt/2560-4828826-8ahqpc/index.html"/>
-    <hyperlink ref="A34" r:id="rId21" display="https://africanminingmarket.com/acacia-to-relocate-core-functions-to-tanzania-in-2019/2599/"/>
-    <hyperlink ref="A35" r:id="rId22" display="https://www.miningreview.com/east-africa/tanzania-lays-law-local-participation-mining-sector/"/>
-    <hyperlink ref="A36" r:id="rId23" display="https://qz.com/africa/1211153/tanzania-mining-law-favors-using-local-banks-insurance-companies/"/>
-    <hyperlink ref="A37" r:id="rId24" display="http://www.telegraph.co.uk/business/2017/04/20/cost-export-ban-mounts-acacia-mining-faces-new-ownership-rules/"/>
-    <hyperlink ref="A40" r:id="rId25" display="https://www.hakirasilimali.or.tz/extractive-resources-industrialisation-linkages-opportunities-challenges-and-lessons-for-tanzania/"/>
-    <hyperlink ref="A41" r:id="rId26" display="https://ipisresearch.be/publication/dissecting-social-license-operate-local-community-perceptions-industrial-mining-northwest-tanzania/"/>
-    <hyperlink ref="A42" r:id="rId27" display="https://www.researchgate.net/publication/322578373_A_New_Developmental_State_in_Africa_Evaluating_Recent_State_Interventions_vis-a-vis_Resource_Extraction_in_Kenya_Tanzania_and_Rwanda"/>
-    <hyperlink ref="A43" r:id="rId28" display="https://www.chathamhouse.org/publication/developing-businesses-scale-sub-saharan-africa-insights-nigeria-tanzania-uganda-zambia"/>
-    <hyperlink ref="A44" r:id="rId29" display="http://www.sciencedirect.com/science/article/pii/S2214790X16301319"/>
-    <hyperlink ref="A45" r:id="rId30" display="http://www.sciencedirect.com/science/article/pii/S2214790X16301447"/>
-    <hyperlink ref="A46" r:id="rId31" display="http://www.sciencedirect.com/science/article/pii/S2214790X1630137X"/>
-    <hyperlink ref="A47" r:id="rId32" display="https://ccsi.columbia.edu/sites/default/files/content/docs/Local-Content_Tanzania-petroleum_Apr2016.pdf"/>
-    <hyperlink ref="A48" r:id="rId33" display="C:\Users\zacha\OneDrive\Documents\Downloads\default\files\content\docs\Local-Content_Tanzania-mining_Apr2016.pdf"/>
-    <hyperlink ref="A49" r:id="rId34" display="https://www.sciencedirect.com/science/article/pii/S2214790X16301630"/>
-    <hyperlink ref="A50" r:id="rId35" display="https://www.cmi.no/publications/file/5784-local-content-in-the-tanzanian-mining-sector.pdf"/>
-    <hyperlink ref="A51" r:id="rId36" display="http://journals.udsm.ac.tz/index.php/ar/article/view/450"/>
-    <hyperlink ref="A54" r:id="rId37" display="https://www.uwezeshaji.go.tz/"/>
-    <hyperlink ref="A55" r:id="rId38" display="https://www.giz.de/en/worldwide/31947.html"/>
-    <hyperlink ref="A56" r:id="rId39" display="https://www.giz.de/en/downloads/E4D_SOGA_Progress_2020.pdf"/>
-    <hyperlink ref="A60" r:id="rId40" display="https://tpdc.co.tz/wp-content/uploads/2015/04/National-Petroleum-Policy.pdf"/>
-    <hyperlink ref="A61" r:id="rId41" display="https://www.tanzania.go.tz/egov_uploads/documents/Natural_Gas_Policy_-_Approved_sw.pdf"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=TZ" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=TZ" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=TZ" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/tanzania" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/226/export-basket" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A24" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A25" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A29" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A30" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A33" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A34" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A35" r:id="rId22" display="https://qz.com/africa/1211153/tanzania-mining-law-favors-using-local-banks-insurance-companies/" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A36" r:id="rId23" display="http://www.telegraph.co.uk/business/2017/04/20/cost-export-ban-mounts-acacia-mining-faces-new-ownership-rules/" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A43" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A44" r:id="rId29" display="http://www.sciencedirect.com/science/article/pii/S2214790X16301447" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A45" r:id="rId30" display="http://www.sciencedirect.com/science/article/pii/S2214790X1630137X" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A46" r:id="rId31" display="https://ccsi.columbia.edu/sites/default/files/content/docs/Local-Content_Tanzania-petroleum_Apr2016.pdf" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A47" r:id="rId32" display="C:\Users\zacha\OneDrive\Documents\Downloads\default\files\content\docs\Local-Content_Tanzania-mining_Apr2016.pdf" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A48" r:id="rId33" display="https://www.sciencedirect.com/science/article/pii/S2214790X16301630" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A49" r:id="rId34" display="https://www.cmi.no/publications/file/5784-local-content-in-the-tanzanian-mining-sector.pdf" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A50" r:id="rId35" display="http://journals.udsm.ac.tz/index.php/ar/article/view/450" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A53" r:id="rId36" display="https://www.uwezeshaji.go.tz/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A54" r:id="rId37" display="https://www.giz.de/en/worldwide/31947.html" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A55" r:id="rId38" display="https://www.giz.de/en/downloads/E4D_SOGA_Progress_2020.pdf" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A59" r:id="rId39" display="https://tpdc.co.tz/wp-content/uploads/2015/04/National-Petroleum-Policy.pdf" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A60" r:id="rId40" display="https://www.tanzania.go.tz/egov_uploads/documents/Natural_Gas_Policy_-_Approved_sw.pdf" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A17" r:id="rId41" xr:uid="{8AF915F7-5FFA-4702-A726-96F94EE08BAA}"/>
+    <hyperlink ref="A31" r:id="rId42" xr:uid="{C911B001-6568-459E-AFCA-8C3F00049252}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId43"/>
   <webPublishItems count="1">
-    <webPublishItem id="6444" divId="Tanzania_Workbook_6444" sourceType="range" sourceRef="A1:I63" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Tanzania\Tanzania_Popup.htm" autoRepublish="1"/>
+    <webPublishItem id="6444" divId="Tanzania_Workbook_6444" sourceType="range" sourceRef="A1:I62" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Tanzania\Tanzania_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/CountryData/Tanzania/Tanzania_Workbook.xlsx
+++ b/CountryData/Tanzania/Tanzania_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Tanzania/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:40009_{5D3DC418-BB66-43A5-A2F0-4A47F8BDFB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D91848D9-E74D-4E8E-AF6B-D568D245714E}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:40009_{5D3DC418-BB66-43A5-A2F0-4A47F8BDFB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EE801C3-8E44-4E85-8614-F8E76E707C78}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3525" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tanzania_Popup" sheetId="1" r:id="rId1"/>
@@ -288,48 +288,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Columbia Centre on Sustainable Investment (2016) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local Content: Tanzania - Petroleum</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Columbia Centre on Sustainable Investment (2016) –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local Content: Tanzania - Mining</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Kinyondo and Lange (2016) –</t>
     </r>
     <r>
@@ -365,61 +323,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Kinyondo and Lange (2016) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local Content in the Tanzanian Mining Sector</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Wineaster Anderson (2016) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local Suppliers in Tanzania: Ready for the Petroleum Sector?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Progress Report: November 2020</t>
-    </r>
-  </si>
-  <si>
     <t>May 2021 – Tanzania Starts Refining Gold to International Standards</t>
   </si>
   <si>
@@ -454,13 +357,28 @@
   </si>
   <si>
     <t>Kinyondo and Villanger (2017) – Local Content Requirements in the Petroleum Sector in Tanzania: A Thorny Road from Inception to Implementation? (Paywall)</t>
+  </si>
+  <si>
+    <t>Columbia Centre on Sustainable Investment (2016) – Local Content: Tanzania - Petroleum</t>
+  </si>
+  <si>
+    <t>Columbia Centre on Sustainable Investment (2016) – Local Content: Tanzania - Mining</t>
+  </si>
+  <si>
+    <t>Kinyondo and Lange (2016) – Local Content in the Tanzanian Mining Sector</t>
+  </si>
+  <si>
+    <t>Wineaster Anderson (2016) – Local Suppliers in Tanzania: Ready for the Petroleum Sector?</t>
+  </si>
+  <si>
+    <t>—Progress Report: November 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -700,13 +618,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1104,7 +1015,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1144,9 +1055,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1171,12 +1079,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1537,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1551,7 +1459,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1563,7 +1471,7 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
@@ -1577,7 +1485,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2"/>
@@ -1591,7 +1499,7 @@
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2"/>
@@ -1605,7 +1513,7 @@
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>163</v>
       </c>
       <c r="C6" s="2"/>
@@ -1619,7 +1527,7 @@
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="5"/>
@@ -1633,7 +1541,7 @@
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1652,7 +1560,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="10"/>
@@ -1865,7 +1773,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="7"/>
@@ -1877,7 +1785,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="7"/>
@@ -1888,8 +1796,8 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>48</v>
+      <c r="A30" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="7"/>
@@ -1900,8 +1808,8 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
-        <v>49</v>
+      <c r="A31" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="7"/>
@@ -1912,8 +1820,8 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>50</v>
+      <c r="A32" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="7"/>
@@ -1925,7 +1833,7 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="7"/>
@@ -1936,8 +1844,8 @@
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>52</v>
+      <c r="A34" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="7"/>
@@ -1948,11 +1856,11 @@
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="7"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1960,11 +1868,11 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="7"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1994,71 +1902,71 @@
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="A39" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
+      <c r="A40" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="A41" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
+      <c r="A42" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+      <c r="A43" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -2066,20 +1974,20 @@
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>40</v>
+      <c r="A46" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="2"/>
@@ -2090,8 +1998,8 @@
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>41</v>
+      <c r="A47" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="2"/>
@@ -2102,20 +2010,20 @@
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="A48" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>43</v>
+      <c r="A49" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="2"/>
@@ -2126,8 +2034,8 @@
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>44</v>
+      <c r="A50" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="2"/>
@@ -2160,7 +2068,7 @@
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="7"/>
@@ -2172,7 +2080,7 @@
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="26" t="s">
         <v>30</v>
       </c>
       <c r="B54" s="7"/>
@@ -2184,8 +2092,8 @@
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
-        <v>45</v>
+      <c r="A55" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="2"/>
@@ -2196,7 +2104,7 @@
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
+      <c r="A56" s="18"/>
       <c r="B56" s="7"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2206,7 +2114,7 @@
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B57" s="7"/>
@@ -2230,7 +2138,7 @@
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B59" s="7"/>
@@ -2242,7 +2150,7 @@
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B60" s="7"/>
@@ -2307,16 +2215,16 @@
     <hyperlink ref="A43" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
     <hyperlink ref="A44" r:id="rId29" display="http://www.sciencedirect.com/science/article/pii/S2214790X16301447" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="A45" r:id="rId30" display="http://www.sciencedirect.com/science/article/pii/S2214790X1630137X" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A46" r:id="rId31" display="https://ccsi.columbia.edu/sites/default/files/content/docs/Local-Content_Tanzania-petroleum_Apr2016.pdf" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A47" r:id="rId32" display="C:\Users\zacha\OneDrive\Documents\Downloads\default\files\content\docs\Local-Content_Tanzania-mining_Apr2016.pdf" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A46" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A47" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="A48" r:id="rId33" display="https://www.sciencedirect.com/science/article/pii/S2214790X16301630" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A49" r:id="rId34" display="https://www.cmi.no/publications/file/5784-local-content-in-the-tanzanian-mining-sector.pdf" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A50" r:id="rId35" display="http://journals.udsm.ac.tz/index.php/ar/article/view/450" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A49" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A50" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="A53" r:id="rId36" display="https://www.uwezeshaji.go.tz/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="A54" r:id="rId37" display="https://www.giz.de/en/worldwide/31947.html" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A55" r:id="rId38" display="https://www.giz.de/en/downloads/E4D_SOGA_Progress_2020.pdf" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A59" r:id="rId39" display="https://tpdc.co.tz/wp-content/uploads/2015/04/National-Petroleum-Policy.pdf" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A60" r:id="rId40" display="https://www.tanzania.go.tz/egov_uploads/documents/Natural_Gas_Policy_-_Approved_sw.pdf" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A55" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A59" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A60" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
     <hyperlink ref="A17" r:id="rId41" xr:uid="{8AF915F7-5FFA-4702-A726-96F94EE08BAA}"/>
     <hyperlink ref="A31" r:id="rId42" xr:uid="{C911B001-6568-459E-AFCA-8C3F00049252}"/>
   </hyperlinks>
